--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H2">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I2">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J2">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q2">
-        <v>570.5030999408009</v>
+        <v>23.46116285156</v>
       </c>
       <c r="R2">
-        <v>5134.527899467208</v>
+        <v>211.15046566404</v>
       </c>
       <c r="S2">
-        <v>0.02070125718402391</v>
+        <v>0.001184415569758495</v>
       </c>
       <c r="T2">
-        <v>0.02070125718402392</v>
+        <v>0.001184415569758495</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H3">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I3">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J3">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q3">
-        <v>968.5183961020467</v>
+        <v>223.517159539268</v>
       </c>
       <c r="R3">
-        <v>8716.665564918421</v>
+        <v>2011.654435853412</v>
       </c>
       <c r="S3">
-        <v>0.03514362745311513</v>
+        <v>0.01128406147391366</v>
       </c>
       <c r="T3">
-        <v>0.03514362745311513</v>
+        <v>0.01128406147391366</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H4">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I4">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J4">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q4">
-        <v>416.6072567106144</v>
+        <v>96.14569123123999</v>
       </c>
       <c r="R4">
-        <v>3749.46531039553</v>
+        <v>865.3112210811599</v>
       </c>
       <c r="S4">
-        <v>0.01511699755319824</v>
+        <v>0.004853828191721601</v>
       </c>
       <c r="T4">
-        <v>0.01511699755319825</v>
+        <v>0.004853828191721601</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J5">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N5">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O5">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P5">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q5">
-        <v>7291.227203713299</v>
+        <v>1299.239337840863</v>
       </c>
       <c r="R5">
-        <v>65621.04483341968</v>
+        <v>11693.15404056777</v>
       </c>
       <c r="S5">
-        <v>0.264569236428133</v>
+        <v>0.06559092191285457</v>
       </c>
       <c r="T5">
-        <v>0.264569236428133</v>
+        <v>0.06559092191285457</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J6">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q6">
         <v>12378.00053617374</v>
@@ -818,10 +818,10 @@
         <v>111402.0048255637</v>
       </c>
       <c r="S6">
-        <v>0.4491477303977974</v>
+        <v>0.6248921526303779</v>
       </c>
       <c r="T6">
-        <v>0.4491477303977975</v>
+        <v>0.624892152630378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J7">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q7">
         <v>5324.385027369703</v>
@@ -880,10 +880,10 @@
         <v>47919.46524632732</v>
       </c>
       <c r="S7">
-        <v>0.1932004643091049</v>
+        <v>0.2687967585283764</v>
       </c>
       <c r="T7">
-        <v>0.193200464309105</v>
+        <v>0.2687967585283764</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H8">
         <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J8">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N8">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O8">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P8">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q8">
-        <v>177.8408341374649</v>
+        <v>31.68983781881778</v>
       </c>
       <c r="R8">
-        <v>1600.567507237184</v>
+        <v>285.20854036936</v>
       </c>
       <c r="S8">
-        <v>0.006453126802786908</v>
+        <v>0.001599832776968837</v>
       </c>
       <c r="T8">
-        <v>0.006453126802786912</v>
+        <v>0.001599832776968838</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H9">
         <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J9">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q9">
         <v>301.9126792792898</v>
@@ -1004,10 +1004,10 @@
         <v>2717.214113513608</v>
       </c>
       <c r="S9">
-        <v>0.01095519379566359</v>
+        <v>0.01524178832517318</v>
       </c>
       <c r="T9">
-        <v>0.01095519379566359</v>
+        <v>0.01524178832517318</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H10">
         <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J10">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q10">
         <v>129.8674486586044</v>
@@ -1066,10 +1066,10 @@
         <v>1168.80703792744</v>
       </c>
       <c r="S10">
-        <v>0.004712366076176904</v>
+        <v>0.006556240590855256</v>
       </c>
       <c r="T10">
-        <v>0.004712366076176906</v>
+        <v>0.006556240590855256</v>
       </c>
     </row>
   </sheetData>
